--- a/datos/EEE.xlsx
+++ b/datos/EEE.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R874ba69ab8e44fc8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R3951a3eda4044705"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/datos/EEE.xlsx
+++ b/datos/EEE.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R3951a3eda4044705"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R9398ea126f9141ed"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -3186,6 +3186,17 @@
         <x:v>3.5</x:v>
       </x:c>
     </x:row>
+    <x:row r="269">
+      <x:c s="5" t="d">
+        <x:v>2022-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5.3</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3.7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:Z1"/>
